--- a/data/Lago Verde.xlsx
+++ b/data/Lago Verde.xlsx
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PAVIMENTACIÓN RUTA 7 NORTE, TRAMO RESERVA NACIONAL LAGO LAS TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,16 +1010,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>550</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1302408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAVIMENTACIÓN RUTA 7 NORTE, TRAMO RESERVA NACIONAL LAGO LAS TORRES (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,16 +1058,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>550</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1302408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">

--- a/data/Lago Verde.xlsx
+++ b/data/Lago Verde.xlsx
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAVIMENTACIÓN RUTA 7 NORTE, TRAMO RESERVA NACIONAL LAGO LAS TORRES (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,16 +1010,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>550</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1302408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PAVIMENTACIÓN RUTA 7 NORTE, TRAMO RESERVA NACIONAL LAGO LAS TORRES (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,16 +1058,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>550</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1302408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
